--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 9.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 9.xlsx_with_dialog_acts.xlsx
@@ -687,12 +687,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1373,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1518,12 +1518,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1698,12 +1698,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1734,12 +1734,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
